--- a/Infer_prop.xlsx
+++ b/Infer_prop.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D2DA93-0D8B-A547-940E-1ED72DEA25CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3EC566-D1FA-704A-9445-C26CB9127066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40920" yWindow="500" windowWidth="16800" windowHeight="20380" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="IFprop009" sheetId="23" r:id="rId9"/>
     <sheet name="IFprop010" sheetId="24" r:id="rId10"/>
     <sheet name="IFprop011" sheetId="25" r:id="rId11"/>
-    <sheet name="IFpropo012med" sheetId="26" r:id="rId12"/>
+    <sheet name="IFpropo012" sheetId="26" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -202,13 +202,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -523,21 +519,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="13" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -547,7 +541,7 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -557,7 +551,7 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -567,7 +561,7 @@
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -575,7 +569,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -583,7 +577,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -591,7 +585,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -599,7 +593,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -607,7 +601,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -615,7 +609,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -623,7 +617,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -631,7 +625,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -639,7 +633,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -647,7 +641,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -655,290 +649,290 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -15122,7 +15116,7 @@
   <dimension ref="A1:C451"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
-      <selection activeCell="C392" sqref="C392:C451"/>
+      <selection activeCell="F394" sqref="F394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Infer_prop.xlsx
+++ b/Infer_prop.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3EC566-D1FA-704A-9445-C26CB9127066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB73A01C-A72A-3746-B5C7-C65ACEDECD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40920" yWindow="500" windowWidth="16800" windowHeight="20380" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="IFprop009" sheetId="23" r:id="rId9"/>
     <sheet name="IFprop010" sheetId="24" r:id="rId10"/>
     <sheet name="IFprop011" sheetId="25" r:id="rId11"/>
-    <sheet name="IFpropo012" sheetId="26" r:id="rId12"/>
+    <sheet name="IFprop012" sheetId="26" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -15116,7 +15116,7 @@
   <dimension ref="A1:C451"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
-      <selection activeCell="F394" sqref="F394"/>
+      <selection activeCell="I402" sqref="I402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
